--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll4-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll4-Notch3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H2">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I2">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J2">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N2">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q2">
-        <v>896.1347201531223</v>
+        <v>335.7452453488988</v>
       </c>
       <c r="R2">
-        <v>8065.2124813781</v>
+        <v>3021.707208140089</v>
       </c>
       <c r="S2">
-        <v>0.1788005688213258</v>
+        <v>0.06746953425817898</v>
       </c>
       <c r="T2">
-        <v>0.1788005688213258</v>
+        <v>0.06746953425817899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H3">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I3">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J3">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P3">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q3">
-        <v>340.8937250764078</v>
+        <v>291.9256285558099</v>
       </c>
       <c r="R3">
-        <v>3068.04352568767</v>
+        <v>2627.330657002289</v>
       </c>
       <c r="S3">
-        <v>0.0680165499456014</v>
+        <v>0.05866378294119675</v>
       </c>
       <c r="T3">
-        <v>0.06801654994560138</v>
+        <v>0.05866378294119676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H4">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I4">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J4">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N4">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O4">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P4">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q4">
-        <v>3704.497444771068</v>
+        <v>4255.953792588659</v>
       </c>
       <c r="R4">
-        <v>33340.47700293961</v>
+        <v>38303.58413329793</v>
       </c>
       <c r="S4">
-        <v>0.739136912593942</v>
+        <v>0.8552532736893724</v>
       </c>
       <c r="T4">
-        <v>0.7391369125939418</v>
+        <v>0.8552532736893727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H5">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I5">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J5">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N5">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P5">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q5">
-        <v>5.75158101945</v>
+        <v>8.376149722983001</v>
       </c>
       <c r="R5">
-        <v>51.76422917505</v>
+        <v>75.38534750684701</v>
       </c>
       <c r="S5">
-        <v>0.001147579638164093</v>
+        <v>0.001683225387448637</v>
       </c>
       <c r="T5">
-        <v>0.001147579638164093</v>
+        <v>0.001683225387448637</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I6">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J6">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N6">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q6">
-        <v>5.319288535956667</v>
+        <v>2.327217096469667</v>
       </c>
       <c r="R6">
-        <v>47.87359682361</v>
+        <v>20.944953868227</v>
       </c>
       <c r="S6">
-        <v>0.00106132682348397</v>
+        <v>0.000467664861354365</v>
       </c>
       <c r="T6">
-        <v>0.001061326823483969</v>
+        <v>0.000467664861354365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I7">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J7">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P7">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q7">
         <v>2.023481562536333</v>
@@ -883,10 +883,10 @@
         <v>18.211334062827</v>
       </c>
       <c r="S7">
-        <v>0.0004037335528291338</v>
+        <v>0.0004066278242078059</v>
       </c>
       <c r="T7">
-        <v>0.0004037335528291337</v>
+        <v>0.000406627824207806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I8">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J8">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N8">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O8">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P8">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q8">
-        <v>21.98920580388234</v>
+        <v>29.500130128737</v>
       </c>
       <c r="R8">
-        <v>197.902852234941</v>
+        <v>265.501171158633</v>
       </c>
       <c r="S8">
-        <v>0.004387378836288761</v>
+        <v>0.005928185336692473</v>
       </c>
       <c r="T8">
-        <v>0.00438737883628876</v>
+        <v>0.005928185336692475</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I9">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J9">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N9">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P9">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q9">
-        <v>0.034140312045</v>
+        <v>0.058059255069</v>
       </c>
       <c r="R9">
-        <v>0.307262808405</v>
+        <v>0.522533295621</v>
       </c>
       <c r="S9">
-        <v>6.811818665323578E-06</v>
+        <v>1.166727140040822E-05</v>
       </c>
       <c r="T9">
-        <v>6.811818665323578E-06</v>
+        <v>1.166727140040822E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H10">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I10">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J10">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N10">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q10">
-        <v>5.315246053845557</v>
+        <v>2.793384128880222</v>
       </c>
       <c r="R10">
-        <v>47.83721448461</v>
+        <v>25.140457159922</v>
       </c>
       <c r="S10">
-        <v>0.001060520250449066</v>
+        <v>0.0005613432469725242</v>
       </c>
       <c r="T10">
-        <v>0.001060520250449065</v>
+        <v>0.0005613432469725242</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H11">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I11">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J11">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.771439</v>
       </c>
       <c r="O11">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P11">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q11">
-        <v>2.021943783947445</v>
+        <v>2.428807046169111</v>
       </c>
       <c r="R11">
-        <v>18.197494055527</v>
+        <v>21.859263415522</v>
       </c>
       <c r="S11">
-        <v>0.0004034267287766435</v>
+        <v>0.000488079823848951</v>
       </c>
       <c r="T11">
-        <v>0.0004034267287766434</v>
+        <v>0.000488079823848951</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H12">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I12">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J12">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N12">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O12">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P12">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q12">
-        <v>21.97249473989345</v>
+        <v>35.409328775782</v>
       </c>
       <c r="R12">
-        <v>197.752452659041</v>
+        <v>318.683958982038</v>
       </c>
       <c r="S12">
-        <v>0.004384044574509112</v>
+        <v>0.007115665684004248</v>
       </c>
       <c r="T12">
-        <v>0.004384044574509111</v>
+        <v>0.007115665684004249</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H13">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I13">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J13">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N13">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P13">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q13">
-        <v>0.034114366545</v>
+        <v>0.06968915873400001</v>
       </c>
       <c r="R13">
-        <v>0.307029298905</v>
+        <v>0.6272024286060001</v>
       </c>
       <c r="S13">
-        <v>6.806641910027722E-06</v>
+        <v>1.400435344286465E-05</v>
       </c>
       <c r="T13">
-        <v>6.806641910027721E-06</v>
+        <v>1.400435344286465E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H14">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I14">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J14">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N14">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O14">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P14">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q14">
-        <v>1.075196292015556</v>
+        <v>0.6615198346595556</v>
       </c>
       <c r="R14">
-        <v>9.676766628139999</v>
+        <v>5.953678511936</v>
       </c>
       <c r="S14">
-        <v>0.0002145276868349802</v>
+        <v>0.0001329354198319228</v>
       </c>
       <c r="T14">
-        <v>0.0002145276868349801</v>
+        <v>0.0001329354198319228</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H15">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I15">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J15">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.771439</v>
       </c>
       <c r="O15">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P15">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q15">
-        <v>0.4090095617664444</v>
+        <v>0.5751819160817778</v>
       </c>
       <c r="R15">
-        <v>3.681086055898</v>
+        <v>5.176637244736</v>
       </c>
       <c r="S15">
-        <v>8.160730820105437E-05</v>
+        <v>0.0001155854223681914</v>
       </c>
       <c r="T15">
-        <v>8.160730820105435E-05</v>
+        <v>0.0001155854223681915</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H16">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I16">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J16">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N16">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O16">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P16">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q16">
-        <v>4.444713307970444</v>
+        <v>8.385518151615999</v>
       </c>
       <c r="R16">
-        <v>40.002419771734</v>
+        <v>75.46966336454399</v>
       </c>
       <c r="S16">
-        <v>0.0008868278952265559</v>
+        <v>0.001685108015796635</v>
       </c>
       <c r="T16">
-        <v>0.0008868278952265557</v>
+        <v>0.001685108015796636</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H17">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I17">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J17">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N17">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P17">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q17">
-        <v>0.006900835829999999</v>
+        <v>0.016503552192</v>
       </c>
       <c r="R17">
-        <v>0.06210752246999999</v>
+        <v>0.148531969728</v>
       </c>
       <c r="S17">
-        <v>1.376883792133123E-06</v>
+        <v>3.316463882735491E-06</v>
       </c>
       <c r="T17">
-        <v>1.376883792133122E-06</v>
+        <v>3.316463882735491E-06</v>
       </c>
     </row>
   </sheetData>
